--- a/March'21/27.03.2021/Market Due.xlsx
+++ b/March'21/27.03.2021/Market Due.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="7" activeTab="21"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="7" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -1012,25 +1012,25 @@
     <t>Rocky</t>
   </si>
   <si>
-    <t>Date:24.03.2021</t>
-  </si>
-  <si>
     <t>24.03.2021</t>
   </si>
   <si>
     <t>25.03.2021</t>
   </si>
   <si>
-    <t>Date:27.03.2021(G.A Achieve)</t>
-  </si>
-  <si>
-    <t>Till-09.30 PM</t>
-  </si>
-  <si>
     <t>27.03.2021</t>
   </si>
   <si>
     <t>Akram(42)</t>
+  </si>
+  <si>
+    <t>Date:28.03.2021</t>
+  </si>
+  <si>
+    <t>Date:28.03.2021(Target vs Achievement)</t>
+  </si>
+  <si>
+    <t>Till-09.40 PM</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1521,9 +1527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1612,6 +1615,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1934,28 +1943,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2257,11 +2266,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B29" s="57">
         <f>SUM(B6:B28)</f>
         <v>59281</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="58"/>
     </row>
   </sheetData>
   <sortState ref="A6:C28">
@@ -2294,28 +2303,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2659,11 +2668,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>123427</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2694,28 +2703,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3066,11 +3075,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>120005</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3101,28 +3110,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3472,11 +3481,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>144667</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3507,28 +3516,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3890,11 +3899,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3925,28 +3934,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4308,11 +4317,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4345,28 +4354,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4728,11 +4737,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>200038</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -4773,28 +4782,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5156,11 +5165,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>215937</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5201,28 +5210,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5584,11 +5593,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>181155</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5629,28 +5638,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6018,11 +6027,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>185894</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -6063,28 +6072,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6463,11 +6472,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="71">
         <f>SUM(B6:B29)</f>
         <v>185236</v>
       </c>
-      <c r="C30" s="73"/>
+      <c r="C30" s="72"/>
       <c r="F30" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -6506,28 +6515,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6853,11 +6862,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>124433</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6890,28 +6899,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6943,7 +6952,7 @@
         <v>27767</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6976,7 +6985,7 @@
         <v>20353</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6998,7 +7007,7 @@
         <v>2432</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7009,7 +7018,7 @@
         <v>3338</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7020,7 +7029,7 @@
         <v>3500</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -7085,7 +7094,7 @@
         <v>1600</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -7107,7 +7116,7 @@
         <v>10400</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -7173,7 +7182,7 @@
         <v>2833</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -7195,7 +7204,7 @@
         <v>14756</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -7217,7 +7226,7 @@
         <v>2600</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7290,11 +7299,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="71">
         <f>SUM(B6:B29)</f>
         <v>175115</v>
       </c>
-      <c r="C30" s="73"/>
+      <c r="C30" s="72"/>
       <c r="F30" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7335,28 +7344,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7388,7 +7397,7 @@
         <v>24377</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7410,7 +7419,7 @@
         <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7421,7 +7430,7 @@
         <v>8038</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7443,7 +7452,7 @@
         <v>2432</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7454,7 +7463,7 @@
         <v>1783</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7465,7 +7474,7 @@
         <v>3500</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -7530,7 +7539,7 @@
         <v>7650</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -7552,7 +7561,7 @@
         <v>13400</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -7574,7 +7583,7 @@
         <v>5769</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -7618,7 +7627,7 @@
         <v>1687</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -7660,7 +7669,7 @@
         <v>500</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7682,7 +7691,7 @@
         <v>955</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7733,11 +7742,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="71">
         <f>SUM(B6:B29)</f>
         <v>153118</v>
       </c>
-      <c r="C30" s="73"/>
+      <c r="C30" s="72"/>
       <c r="F30" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7763,8 +7772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7778,28 +7787,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7831,7 +7840,7 @@
         <v>30448</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7853,7 +7862,7 @@
         <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7864,7 +7873,7 @@
         <v>6776</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7886,7 +7895,7 @@
         <v>2432</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7897,7 +7906,7 @@
         <v>1783</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7908,7 +7917,7 @@
         <v>3500</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -7973,7 +7982,7 @@
         <v>4260</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -7995,7 +8004,7 @@
         <v>10400</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -8017,7 +8026,7 @@
         <v>5769</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -8061,7 +8070,7 @@
         <v>2187</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -8077,13 +8086,13 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="6">
         <v>21145</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -8105,7 +8114,7 @@
         <v>1500</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -8127,7 +8136,7 @@
         <v>955</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -8178,11 +8187,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="71">
         <f>SUM(B6:B29)</f>
         <v>167087</v>
       </c>
-      <c r="C30" s="73"/>
+      <c r="C30" s="72"/>
       <c r="F30" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -8208,14 +8217,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
@@ -8225,12 +8234,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="42"/>
+      <c r="A1" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8241,7 +8250,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>61</v>
@@ -8252,55 +8261,78 @@
       <c r="A3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="28">
+        <v>5</v>
+      </c>
       <c r="C3" s="28">
         <v>2</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="28">
+        <f>B3-C3</f>
+        <v>3</v>
+      </c>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="28">
+        <v>10</v>
+      </c>
       <c r="C4" s="28">
-        <v>2</v>
-      </c>
-      <c r="D4" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="28">
+        <f t="shared" ref="D4:D23" si="0">B4-C4</f>
+        <v>4</v>
+      </c>
       <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="28">
+        <v>10</v>
+      </c>
       <c r="C5" s="28">
-        <v>5</v>
-      </c>
-      <c r="D5" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="28">
+        <v>5</v>
+      </c>
       <c r="C6" s="28">
-        <v>4</v>
-      </c>
-      <c r="D6" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="45">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28"/>
+      <c r="B7" s="28">
+        <v>5</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E7" s="41"/>
       <c r="G7" s="34"/>
     </row>
@@ -8308,11 +8340,16 @@
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="28">
+        <v>10</v>
+      </c>
       <c r="C8" s="28">
-        <v>12</v>
-      </c>
-      <c r="D8" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="E8" s="37"/>
       <c r="G8" s="34"/>
       <c r="J8" s="43"/>
@@ -8321,165 +8358,233 @@
       <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28">
-        <v>10</v>
-      </c>
-      <c r="D9" s="28"/>
+      <c r="B9" s="28">
+        <v>5</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28">
-        <v>3</v>
-      </c>
-      <c r="D10" s="28"/>
+      <c r="B10" s="28">
+        <v>15</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="28">
+        <v>20</v>
+      </c>
       <c r="C11" s="28">
-        <v>2</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="E11" s="37"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="28">
+        <v>20</v>
+      </c>
       <c r="C12" s="28">
-        <v>21</v>
-      </c>
-      <c r="D12" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="28">
+        <v>5</v>
+      </c>
       <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28">
-        <v>3</v>
-      </c>
-      <c r="D14" s="28"/>
+      <c r="B14" s="28">
+        <v>10</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="28">
+        <v>10</v>
+      </c>
       <c r="C15" s="28">
-        <v>10</v>
-      </c>
-      <c r="D15" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="D15" s="29">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
       <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="28">
+        <v>10</v>
+      </c>
       <c r="C16" s="28">
-        <v>10</v>
-      </c>
-      <c r="D16" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="45">
-        <v>0</v>
-      </c>
-      <c r="D17" s="28"/>
+      <c r="B17" s="28">
+        <v>5</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="28">
+        <v>10</v>
+      </c>
       <c r="C18" s="28">
-        <v>5</v>
-      </c>
-      <c r="D18" s="28"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="28">
+        <v>5</v>
+      </c>
       <c r="C19" s="28">
-        <v>1</v>
-      </c>
-      <c r="D19" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="28">
+        <v>15</v>
+      </c>
       <c r="C20" s="28">
-        <v>8</v>
-      </c>
-      <c r="D20" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="D20" s="28">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="28">
+        <v>15</v>
+      </c>
       <c r="C21" s="28">
-        <v>4</v>
-      </c>
-      <c r="D21" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="45">
-        <v>0</v>
-      </c>
-      <c r="D22" s="28"/>
+      <c r="B22" s="33">
+        <v>10</v>
+      </c>
+      <c r="C22" s="36">
+        <v>23</v>
+      </c>
+      <c r="D22" s="29">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
       <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="28">
+        <v>15</v>
+      </c>
       <c r="C23" s="28">
-        <v>2</v>
-      </c>
-      <c r="D23" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -8488,21 +8593,21 @@
       </c>
       <c r="B24" s="39">
         <f>SUM(B3:B23)</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="C24" s="39">
         <f>SUM(C3:C23)</f>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D3:D23)</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8513,7 +8618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
@@ -8526,10 +8631,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="75"/>
+      <c r="A1" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="74"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="27"/>
@@ -8582,12 +8687,12 @@
         <v>41</v>
       </c>
       <c r="B5" s="28">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -8625,12 +8730,12 @@
         <v>44</v>
       </c>
       <c r="B8" s="28">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="E8" s="26"/>
     </row>
@@ -8653,12 +8758,12 @@
         <v>46</v>
       </c>
       <c r="B10" s="28">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E10" s="26"/>
     </row>
@@ -8667,12 +8772,12 @@
         <v>47</v>
       </c>
       <c r="B11" s="28">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="E11" s="26"/>
     </row>
@@ -8681,12 +8786,12 @@
         <v>48</v>
       </c>
       <c r="B12" s="28">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="E12" s="26"/>
     </row>
@@ -8765,12 +8870,12 @@
         <v>54</v>
       </c>
       <c r="B18" s="28">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="E18" s="26"/>
     </row>
@@ -8793,12 +8898,12 @@
         <v>56</v>
       </c>
       <c r="B20" s="28">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -8807,12 +8912,12 @@
         <v>57</v>
       </c>
       <c r="B21" s="28">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="E21" s="26"/>
     </row>
@@ -8821,12 +8926,12 @@
         <v>58</v>
       </c>
       <c r="B22" s="33">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="33">
         <f>B22-C22</f>
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -8835,12 +8940,12 @@
         <v>59</v>
       </c>
       <c r="B23" s="28">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -8849,7 +8954,7 @@
       </c>
       <c r="B24" s="29">
         <f>SUM(B3:B23)</f>
-        <v>264000</v>
+        <v>301000</v>
       </c>
       <c r="C24" s="29">
         <f>SUM(C3:C23)</f>
@@ -8857,7 +8962,7 @@
       </c>
       <c r="D24" s="29">
         <f>SUM(D3:D23)</f>
-        <v>264000</v>
+        <v>301000</v>
       </c>
     </row>
   </sheetData>
@@ -8885,12 +8990,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9244,28 +9349,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -9585,11 +9690,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>123495</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9620,28 +9725,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -9973,11 +10078,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>112100</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10008,28 +10113,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10361,11 +10466,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>163436</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10396,28 +10501,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10753,11 +10858,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>128286</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10788,28 +10893,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11151,11 +11256,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>117101</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11186,28 +11291,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11551,11 +11656,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>121959</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11586,28 +11691,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11956,11 +12061,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>128644</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
